--- a/biology/Botanique/Casuarina_glauca/Casuarina_glauca.xlsx
+++ b/biology/Botanique/Casuarina_glauca/Casuarina_glauca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Casuarina glauca est une espèce de plantes de la famille des Casuarinaceae poussant sur la côte est de l'Australie. On le trouve depuis le centre du sud du Queensland au sud de la Nouvelle-Galles du Sud. Il s'est acclimaté dans les Everglades en Floride, où il est considéré comme une mauvaise herbe.
 Il se présente soit sous forme d'arbre, soit sous forme de buisson, soit sous forme de plante rampante.
